--- a/tecnica_analise/2022/MATRIZ-FULL-2022.xlsx
+++ b/tecnica_analise/2022/MATRIZ-FULL-2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="19" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="19" r:id="rId1"/>
@@ -5902,6 +5902,126 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6338,126 +6458,6 @@
       <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFCF5E8"/>
@@ -6617,7 +6617,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6760,11 +6759,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="212184096"/>
-        <c:axId val="257683048"/>
+        <c:axId val="266459824"/>
+        <c:axId val="220648480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="212184096"/>
+        <c:axId val="266459824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6806,7 +6805,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257683048"/>
+        <c:crossAx val="220648480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6814,7 +6813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257683048"/>
+        <c:axId val="220648480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6864,7 +6863,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212184096"/>
+        <c:crossAx val="266459824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7195,11 +7194,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257679912"/>
-        <c:axId val="257681088"/>
+        <c:axId val="266730424"/>
+        <c:axId val="266730032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257679912"/>
+        <c:axId val="266730424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7252,12 +7251,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257681088"/>
+        <c:crossAx val="266730032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257681088"/>
+        <c:axId val="266730032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7311,7 +7310,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257679912"/>
+        <c:crossAx val="266730424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7642,11 +7641,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257682656"/>
-        <c:axId val="257681480"/>
+        <c:axId val="266731992"/>
+        <c:axId val="266732776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257682656"/>
+        <c:axId val="266731992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7699,12 +7698,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257681480"/>
+        <c:crossAx val="266732776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257681480"/>
+        <c:axId val="266732776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7758,7 +7757,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257682656"/>
+        <c:crossAx val="266731992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9544,16 +9543,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_235" displayName="Table_235" ref="F317:I317" headerRowCount="0" headerRowDxfId="79" dataDxfId="78" totalsRowDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_235" displayName="Table_235" ref="F317:I317" headerRowCount="0" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="76">
+    <tableColumn id="1" name="Column1" dataDxfId="88">
       <calculatedColumnFormula>COUNTIF(K$2:K$325,G317)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="75"/>
-    <tableColumn id="3" name="Column3" dataDxfId="74">
+    <tableColumn id="2" name="Column2" dataDxfId="87"/>
+    <tableColumn id="3" name="Column3" dataDxfId="86">
       <calculatedColumnFormula>SUMIFS($I$2:$I$299,$K$2:$K$299,G317)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="73">
+    <tableColumn id="4" name="Column4" dataDxfId="85">
       <calculatedColumnFormula>H317/D$311*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9562,16 +9561,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_336" displayName="Table_336" ref="F318:I318" headerRowCount="0" headerRowDxfId="72" dataDxfId="71" totalsRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_336" displayName="Table_336" ref="F318:I318" headerRowCount="0" headerRowDxfId="84" dataDxfId="83" totalsRowDxfId="82">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="69">
+    <tableColumn id="1" name="Column1" dataDxfId="81">
       <calculatedColumnFormula>COUNTIF(K$2:K$325,G318)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="68"/>
-    <tableColumn id="3" name="Column3" dataDxfId="67">
+    <tableColumn id="2" name="Column2" dataDxfId="80"/>
+    <tableColumn id="3" name="Column3" dataDxfId="79">
       <calculatedColumnFormula>SUMIFS($I$2:$I$299,$K$2:$K$299,G318)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="66">
+    <tableColumn id="4" name="Column4" dataDxfId="78">
       <calculatedColumnFormula>H318/D$311*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9580,16 +9579,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_437" displayName="Table_437" ref="F319:I320" headerRowCount="0" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_437" displayName="Table_437" ref="F319:I320" headerRowCount="0" headerRowDxfId="77" dataDxfId="76" totalsRowDxfId="75">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="62">
+    <tableColumn id="1" name="Column1" dataDxfId="74">
       <calculatedColumnFormula>COUNTIF(K$2:K$325,G319)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="61"/>
-    <tableColumn id="3" name="Column3" dataDxfId="60">
+    <tableColumn id="2" name="Column2" dataDxfId="73"/>
+    <tableColumn id="3" name="Column3" dataDxfId="72">
       <calculatedColumnFormula>SUMIFS($I$2:$I$299,$K$2:$K$299,G319)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="59">
+    <tableColumn id="4" name="Column4" dataDxfId="71">
       <calculatedColumnFormula>H319/D$311*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9598,16 +9597,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_740" displayName="Table_740" ref="F321:I321" headerRowCount="0" headerRowDxfId="58" dataDxfId="57" totalsRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_740" displayName="Table_740" ref="F321:I321" headerRowCount="0" headerRowDxfId="70" dataDxfId="69" totalsRowDxfId="68">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="55">
+    <tableColumn id="1" name="Column1" dataDxfId="67">
       <calculatedColumnFormula>COUNTIF(K$2:K$325,G321)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="54"/>
-    <tableColumn id="3" name="Column3" dataDxfId="53">
+    <tableColumn id="2" name="Column2" dataDxfId="66"/>
+    <tableColumn id="3" name="Column3" dataDxfId="65">
       <calculatedColumnFormula>SUMIFS($I$2:$I$299,$K$2:$K$299,G321)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="52">
+    <tableColumn id="4" name="Column4" dataDxfId="64">
       <calculatedColumnFormula>H321/D$311*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9616,16 +9615,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_1043" displayName="Table_1043" ref="F322:I322" headerRowCount="0" headerRowDxfId="51" dataDxfId="50" totalsRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_1043" displayName="Table_1043" ref="F322:I322" headerRowCount="0" headerRowDxfId="63" dataDxfId="62" totalsRowDxfId="61">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="48">
+    <tableColumn id="1" name="Column1" dataDxfId="60">
       <calculatedColumnFormula>COUNTIF(K$2:K$325,G322)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="47"/>
-    <tableColumn id="3" name="Column3" dataDxfId="46">
+    <tableColumn id="2" name="Column2" dataDxfId="59"/>
+    <tableColumn id="3" name="Column3" dataDxfId="58">
       <calculatedColumnFormula>SUMIFS($I$2:$I$299,$K$2:$K$299,G322)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="45">
+    <tableColumn id="4" name="Column4" dataDxfId="57">
       <calculatedColumnFormula>H322/D$311*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9922,7 +9921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+    <sheetView topLeftCell="A303" workbookViewId="0">
       <selection activeCell="D304" sqref="D304"/>
     </sheetView>
   </sheetViews>
@@ -20096,50 +20095,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H304:H331">
-    <cfRule type="cellIs" dxfId="91" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="107" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="108" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99:G122 I2:I299">
-    <cfRule type="cellIs" dxfId="89" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:G97">
-    <cfRule type="cellIs" dxfId="87" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="85" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G153:G159">
-    <cfRule type="cellIs" dxfId="83" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G160:G166">
-    <cfRule type="cellIs" dxfId="81" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20158,8 +20157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26174,8 +26173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26240,7 +26239,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="57">
-        <f>F2-D$25</f>
+        <f>F2-D$28</f>
         <v>-450</v>
       </c>
       <c r="H2" s="33" t="s">
@@ -26267,11 +26266,11 @@
         <v>33</v>
       </c>
       <c r="F3" s="57">
-        <f>C3*D$25</f>
+        <f>C3*D$28</f>
         <v>823.5</v>
       </c>
       <c r="G3" s="57">
-        <f>F3-D$25</f>
+        <f>F3-D$28</f>
         <v>373.5</v>
       </c>
       <c r="H3" s="33" t="s">
@@ -26327,11 +26326,11 @@
         <v>33</v>
       </c>
       <c r="F5" s="57">
-        <f>C5*D$25</f>
+        <f>C5*D$28</f>
         <v>846</v>
       </c>
       <c r="G5" s="57">
-        <f>F5-D$25</f>
+        <f>F5-D$28</f>
         <v>396</v>
       </c>
       <c r="H5" s="33" t="s">
@@ -26358,11 +26357,11 @@
         <v>34</v>
       </c>
       <c r="F6" s="57">
-        <f>C6*D$25</f>
+        <f>C6*D$28</f>
         <v>810</v>
       </c>
       <c r="G6" s="57">
-        <f>F6-D$25</f>
+        <f>F6-D$28</f>
         <v>360</v>
       </c>
       <c r="H6" s="33" t="s">
@@ -26389,11 +26388,11 @@
         <v>33</v>
       </c>
       <c r="F7" s="57">
-        <f>C7*D$25</f>
+        <f>C7*D$28</f>
         <v>819</v>
       </c>
       <c r="G7" s="57">
-        <f>(F7-D$25)</f>
+        <f>(F7-D$28)</f>
         <v>369</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -26420,11 +26419,11 @@
         <v>33</v>
       </c>
       <c r="F8" s="57">
-        <f>C8*D$25</f>
+        <f>C8*D$28</f>
         <v>886.5</v>
       </c>
       <c r="G8" s="57">
-        <f>(F8-D$25)</f>
+        <f>(F8-D$28)</f>
         <v>436.5</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -26483,32 +26482,21 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
-      <c r="D14" s="26">
-        <f>COUNT(C:C)</f>
-        <v>8</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="13">
-        <f>D14-D15</f>
-        <v>7</v>
-      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4">
-        <f>D16/D14*100</f>
-        <v>87.5</v>
+      <c r="D17" s="26">
+        <f>COUNT(C:C)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -26516,9 +26504,8 @@
         <v>36</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4">
-        <f>1/D19*100</f>
-        <v>61.64667516363339</v>
+      <c r="D18" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -26526,9 +26513,9 @@
         <v>37</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4">
-        <f>SUM(C$2:C$1048576)/D14</f>
-        <v>1.6221475000000001</v>
+      <c r="D19" s="13">
+        <f>D17-D18</f>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -26536,9 +26523,9 @@
         <v>38</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="13">
-        <f>D17-D18</f>
-        <v>25.85332483636661</v>
+      <c r="D20" s="4">
+        <f>D19/D17*100</f>
+        <v>87.5</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -26546,27 +26533,29 @@
         <v>39</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="13">
-        <f>D20/1</f>
-        <v>25.85332483636661</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D21" s="4">
+        <f>1/D22*100</f>
+        <v>61.64667516363339</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="15">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D22" s="4">
+        <f>SUM(C$2:C$1048576)/D17</f>
+        <v>1.6221475000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="16">
-        <v>25000</v>
+      <c r="D23" s="13">
+        <f>D20-D21</f>
+        <v>25.85332483636661</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -26574,29 +26563,27 @@
         <v>42</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="10">
-        <f>D23/100</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="13">
+        <f>D23/1</f>
+        <v>25.85332483636661</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="18">
-        <f>D24*1.8</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="15">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="25">
-        <f>SUM(G2:G6)</f>
-        <v>679.5</v>
+      <c r="D26" s="16">
+        <v>25000</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -26604,27 +26591,39 @@
         <v>45</v>
       </c>
       <c r="C27" s="4">
-        <f>D26/D23</f>
+        <f>D29/D26</f>
         <v>2.7179999999999999E-2</v>
       </c>
-      <c r="D27" s="38">
-        <f>D26/D22*100</f>
-        <v>2.718</v>
+      <c r="D27" s="10">
+        <f>D26/100</f>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
         <v>1558</v>
       </c>
+      <c r="D28" s="18">
+        <f>D27*1.8</f>
+        <v>450</v>
+      </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="D29" s="25">
+        <f>SUM(G2:G6)</f>
+        <v>679.5</v>
+      </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>47</v>
+      </c>
+      <c r="D30" s="38">
+        <f>D29/D25*100</f>
+        <v>2.718</v>
       </c>
     </row>
   </sheetData>
@@ -33824,7 +33823,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39174,7 +39173,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44281,7 +44280,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51095,7 +51094,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55455,8 +55454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60989,7 +60988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -66373,7 +66372,7 @@
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -85147,7 +85146,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
